--- a/biology/Botanique/Elaeis/Elaeis.xlsx
+++ b/biology/Botanique/Elaeis/Elaeis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeis est un genre de palmiers (famille des Arécacées).
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille : Arecaceae
 Sous-famille : Arecoideae
@@ -546,18 +560,20 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (29 décembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (29 décembre 2013) :
 Elaeis guineensis Jacq.
 Elaeis oleifera (Kunth) Cortés
-Selon World Checklist of Selected Plant Families (WCSP)  (29 décembre 2013)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (29 décembre 2013) :
 Elaeis guineensis Jacq. (1763)
 Elaeis oleifera (Kunth) Cortés (1897)
-Selon NCBI  (29 décembre 2013)[4] :
+Selon NCBI  (29 décembre 2013) :
 Elaeis guineensis
 Elaeis oleifera
-Selon The Plant List            (29 décembre 2013)[5] :
+Selon The Plant List            (29 décembre 2013) :
 Elaeis guineensis Jacq.
 Elaeis oleifera (Kunth) Cortés
 </t>
